--- a/mySystem/mySystem/xls/tuihuo/表1产品退货申请单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表1产品退货申请单.xlsx
@@ -534,9 +534,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +542,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,39 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,153 +882,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A15:E16"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/tuihuo/表1产品退货申请单.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表1产品退货申请单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -103,282 +103,6 @@
   </si>
   <si>
     <t>退货理由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退货申请单编号：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> PA-PRS-2017XXX:    ( PALL AUSTAR Product Return Sheet--YYYY(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年度）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（序列号），年度与系统一致，序列号从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始，自动累加，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>申请人：即为“登录人”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>申请日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与填写系统日期一致；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写“”“；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绿色背景色的项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动生成，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可手动更改。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退货理由：填写。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写过程中，可以随时保存，以免内容丢失。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交审核：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写无误后，按“提交审核”；此时“申请日期”变为提交审核时的系统日期。</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,23 +275,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,15 +291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,22 +588,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -907,8 +613,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -918,8 +624,8 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -929,8 +635,8 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -949,88 +655,22 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>